--- a/docs/mcode/shr-core-NationalProviderIdentifier.xlsx
+++ b/docs/mcode/shr-core-NationalProviderIdentifier.xlsx
@@ -301,7 +301,7 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Fixed_PRN</t>
+    <t>Fixed_NPI</t>
   </si>
   <si>
     <t>Identifier.type.coding.id</t>
@@ -372,7 +372,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="PRN"/&gt;</t>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="NPI"/&gt;</t>
   </si>
   <si>
     <t>C*E.1</t>
